--- a/BackTest/2020-01-22 BackTest IOST.xlsx
+++ b/BackTest/2020-01-22 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,19 @@
         <v>-1087503.72263181</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>6.081</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.081</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,22 +719,23 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="J10" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>6.081</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,26 +760,23 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.094</v>
       </c>
       <c r="J11" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>6.081</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,66 +801,60 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.101</v>
       </c>
       <c r="J12" t="n">
         <v>6.101</v>
       </c>
-      <c r="K12" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="F13" t="n">
+        <v>48400.3685</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-976624.2129318102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48400.3685</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-976624.2129318102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -912,26 +879,21 @@
         <v>-943078.3653318102</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="K14" t="n">
         <v>6.101</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -956,26 +918,15 @@
         <v>-943311.0010318102</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,22 +951,15 @@
         <v>-905703.4984188002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1042,22 +986,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1084,22 +1019,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1126,16 +1052,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,18 +1083,15 @@
         <v>-835275.6404188002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1196,18 +1116,15 @@
         <v>-837175.6404188002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,18 +1149,15 @@
         <v>-835675.6404188002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1268,18 +1182,15 @@
         <v>-835675.6404188002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,18 +1215,15 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1342,16 +1250,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,16 +1283,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1414,16 +1316,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1450,16 +1349,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1486,16 +1382,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1522,16 +1415,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1558,16 +1448,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1594,16 +1481,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1630,16 +1514,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,16 +1547,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1702,16 +1580,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1738,16 +1613,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1774,16 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1810,16 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1846,16 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,16 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1918,16 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1954,16 +1811,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1990,16 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2026,16 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2062,16 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2098,16 +1943,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2134,16 +1976,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2170,16 +2009,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2206,16 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,16 +2075,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2278,16 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2314,16 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2350,16 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,18 +2205,15 @@
         <v>708393.8947812001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2420,18 +2238,15 @@
         <v>699090.1397812001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2458,16 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2492,18 +2304,15 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2530,16 +2339,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2566,16 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2602,16 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2638,16 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2674,16 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2710,16 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,16 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2780,18 +2568,15 @@
         <v>1110288.7802812</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2816,18 +2601,15 @@
         <v>1110288.7792812</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2852,18 +2634,15 @@
         <v>1104056.0316812</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2888,18 +2667,15 @@
         <v>1121723.5374812</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2924,18 +2700,15 @@
         <v>1118677.3679812</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2960,18 +2733,15 @@
         <v>1150360.3455812</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2996,18 +2766,15 @@
         <v>1155812.0924812</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3032,18 +2799,15 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3068,18 +2832,15 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3104,18 +2865,15 @@
         <v>1115256.2432812</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3142,16 +2900,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3178,16 +2933,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3214,16 +2966,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3248,18 +2997,15 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3284,18 +3030,15 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,18 +3063,15 @@
         <v>759212.9307811999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3356,18 +3096,15 @@
         <v>677356.7308811999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3394,16 +3131,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3428,18 +3162,15 @@
         <v>609218.6608811999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3466,16 +3197,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3500,18 +3228,15 @@
         <v>610594.7675811999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3536,18 +3261,15 @@
         <v>947367.5850811999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3572,18 +3294,15 @@
         <v>990301.5850811999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3608,18 +3327,15 @@
         <v>986980.0950811999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3644,18 +3360,15 @@
         <v>987267.0950811999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3680,18 +3393,15 @@
         <v>317937.1333811999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3716,18 +3426,15 @@
         <v>334832.7216811999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,18 +3459,15 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3788,18 +3492,15 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3826,16 +3527,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3862,16 +3560,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3898,16 +3593,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3932,18 +3624,15 @@
         <v>144992.0757811999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,18 +3657,15 @@
         <v>314942.1757811999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,18 +3690,15 @@
         <v>300064.9245811999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4042,16 +3725,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4076,18 +3756,15 @@
         <v>297184.5395811999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4114,16 +3791,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4148,18 +3822,15 @@
         <v>389956.2855811999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4186,16 +3857,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4222,16 +3890,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4258,16 +3923,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4294,16 +3956,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4330,16 +3989,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4364,18 +4020,15 @@
         <v>141062.3749811999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4402,16 +4055,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4438,16 +4088,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4474,16 +4121,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4510,16 +4154,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4546,16 +4187,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4582,16 +4220,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4618,18 +4253,15 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest IOST.xlsx
+++ b/BackTest/2020-01-22 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>-1087503.72263181</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.081</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,15 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.08</v>
       </c>
       <c r="J10" t="n">
-        <v>6.081</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.08</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -760,13 +752,13 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.094</v>
       </c>
       <c r="J11" t="n">
-        <v>6.081</v>
+        <v>6.08</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -801,15 +793,19 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.101</v>
       </c>
       <c r="J12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>6.08</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -838,7 +834,7 @@
         <v>-976624.2129318102</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.101</v>
@@ -846,11 +842,7 @@
       <c r="J13" t="n">
         <v>6.101</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,9 +871,11 @@
         <v>-943078.3653318102</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.109</v>
+      </c>
       <c r="J14" t="n">
         <v>6.101</v>
       </c>
@@ -918,11 +912,19 @@
         <v>-943311.0010318102</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -951,10 +953,14 @@
         <v>-905703.4984188002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.105</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -987,8 +993,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1020,8 +1032,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>-835275.6404188002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1116,7 +1134,7 @@
         <v>-837175.6404188002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1149,7 +1167,7 @@
         <v>-835675.6404188002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1182,7 +1200,7 @@
         <v>-835675.6404188002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1215,7 +1233,7 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2205,7 +2223,7 @@
         <v>708393.8947812001</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2238,7 +2256,7 @@
         <v>699090.1397812001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2304,7 +2322,7 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2568,7 +2586,7 @@
         <v>1110288.7802812</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2601,7 +2619,7 @@
         <v>1110288.7792812</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2634,7 +2652,7 @@
         <v>1104056.0316812</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2667,7 +2685,7 @@
         <v>1121723.5374812</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2700,7 +2718,7 @@
         <v>1118677.3679812</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2733,7 +2751,7 @@
         <v>1150360.3455812</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2766,7 +2784,7 @@
         <v>1155812.0924812</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2799,7 +2817,7 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2832,7 +2850,7 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2865,7 +2883,7 @@
         <v>1115256.2432812</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2898,7 +2916,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2931,7 +2949,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2964,7 +2982,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2997,7 +3015,7 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3030,7 +3048,7 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3063,7 +3081,7 @@
         <v>759212.9307811999</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3096,7 +3114,7 @@
         <v>677356.7308811999</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3129,7 +3147,7 @@
         <v>682356.7308811999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3162,7 +3180,7 @@
         <v>609218.6608811999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3228,7 +3246,7 @@
         <v>610594.7675811999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3261,7 +3279,7 @@
         <v>947367.5850811999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3294,7 +3312,7 @@
         <v>990301.5850811999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3327,7 +3345,7 @@
         <v>986980.0950811999</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3360,7 +3378,7 @@
         <v>987267.0950811999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3393,7 +3411,7 @@
         <v>317937.1333811999</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3426,7 +3444,7 @@
         <v>334832.7216811999</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3459,7 +3477,7 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3492,7 +3510,7 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3525,7 +3543,7 @@
         <v>219765.1395811999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3558,7 +3576,7 @@
         <v>219965.1395811999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3591,7 +3609,7 @@
         <v>144817.1195811999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3624,7 +3642,7 @@
         <v>144992.0757811999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3657,7 +3675,7 @@
         <v>314942.1757811999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3690,7 +3708,7 @@
         <v>300064.9245811999</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3723,7 +3741,7 @@
         <v>300219.9245811999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3756,7 +3774,7 @@
         <v>297184.5395811999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3789,7 +3807,7 @@
         <v>297184.5395811999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3822,7 +3840,7 @@
         <v>389956.2855811999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4020,7 +4038,7 @@
         <v>141062.3749811999</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4262,6 +4280,6 @@
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest IOST.xlsx
+++ b/BackTest/2020-01-22 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-511350.8401000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-618350.8401000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-944336.3769318102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,14 +715,10 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,216 +748,188 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23303.881</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1025024.58143181</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="F13" t="n">
+        <v>48400.3685</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-976624.2129318102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33545.8476</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-943078.3653318102</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="F15" t="n">
+        <v>232.6357</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-943311.0010318102</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.114</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.114</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37607.50261301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-905703.4984188002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23303.881</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1025024.58143181</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48400.3685</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-976624.2129318102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33545.8476</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-943078.3653318102</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="F15" t="n">
-        <v>232.6357</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-943311.0010318102</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="F16" t="n">
-        <v>37607.50261301</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-905703.4984188002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -994,7 +962,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>6.105</v>
+        <v>6.11</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1032,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1233,7 +1195,7 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1266,7 +1228,7 @@
         <v>-829956.0447188001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1299,7 +1261,7 @@
         <v>-830596.0447188001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1332,7 +1294,7 @@
         <v>-834899.3807188001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1365,7 +1327,7 @@
         <v>-834702.4803188001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1398,7 +1360,7 @@
         <v>-841756.3782188001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1431,7 +1393,7 @@
         <v>-769756.3782188001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1464,7 +1426,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1497,7 +1459,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1530,7 +1492,7 @@
         <v>-509124.7454188</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1563,7 +1525,7 @@
         <v>-516285.0419188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1596,7 +1558,7 @@
         <v>-361534.7316188</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1695,7 +1657,7 @@
         <v>-283976.1110188001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2322,7 +2284,7 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2317,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2350,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2383,7 @@
         <v>734380.4703812001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2619,7 +2581,7 @@
         <v>1110288.7792812</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2614,7 @@
         <v>1104056.0316812</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2647,7 @@
         <v>1121723.5374812</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2680,7 @@
         <v>1118677.3679812</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2713,7 @@
         <v>1150360.3455812</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +2746,7 @@
         <v>1155812.0924812</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2817,7 +2779,7 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2850,7 +2812,7 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2883,7 +2845,7 @@
         <v>1115256.2432812</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2916,7 +2878,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +2911,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2982,7 +2944,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3015,7 +2977,7 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +3010,7 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3114,7 +3076,7 @@
         <v>677356.7308811999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3147,7 +3109,7 @@
         <v>682356.7308811999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3279,7 +3241,7 @@
         <v>947367.5850811999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3312,7 +3274,7 @@
         <v>990301.5850811999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3345,7 +3307,7 @@
         <v>986980.0950811999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3378,7 +3340,7 @@
         <v>987267.0950811999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3411,7 +3373,7 @@
         <v>317937.1333811999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3444,7 +3406,7 @@
         <v>334832.7216811999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3477,7 +3439,7 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3510,7 +3472,7 @@
         <v>217832.7216811999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3543,7 +3505,7 @@
         <v>219765.1395811999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3576,7 +3538,7 @@
         <v>219965.1395811999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3609,7 +3571,7 @@
         <v>144817.1195811999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3642,7 +3604,7 @@
         <v>144992.0757811999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3675,7 +3637,7 @@
         <v>314942.1757811999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3708,7 +3670,7 @@
         <v>300064.9245811999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3741,7 +3703,7 @@
         <v>300219.9245811999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3774,7 +3736,7 @@
         <v>297184.5395811999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3807,7 +3769,7 @@
         <v>297184.5395811999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3840,7 +3802,7 @@
         <v>389956.2855811999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4038,7 +4000,7 @@
         <v>141062.3749811999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4280,6 +4242,6 @@
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest IOST.xlsx
+++ b/BackTest/2020-01-22 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>-511350.8401000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-618350.8401000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-944336.3769318102</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,10 +715,14 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.08</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +752,19 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.094</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,19 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,10 +834,14 @@
         <v>-976624.2129318102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.101</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +871,19 @@
         <v>-943078.3653318102</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -886,9 +918,13 @@
         <v>6.11</v>
       </c>
       <c r="J15" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>6.101</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -923,13 +959,9 @@
         <v>6.105</v>
       </c>
       <c r="J16" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.105</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -958,11 +990,13 @@
         <v>-900703.4984188002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.148</v>
+      </c>
       <c r="J17" t="n">
-        <v>6.11</v>
+        <v>6.105</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1000,8 +1034,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1195,7 +1235,7 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1228,7 +1268,7 @@
         <v>-829956.0447188001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1301,7 @@
         <v>-830596.0447188001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1294,7 +1334,7 @@
         <v>-834899.3807188001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1327,7 +1367,7 @@
         <v>-834702.4803188001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1360,7 +1400,7 @@
         <v>-841756.3782188001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1393,7 +1433,7 @@
         <v>-769756.3782188001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1466,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1499,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1532,7 @@
         <v>-509124.7454188</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1565,7 @@
         <v>-516285.0419188</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1598,7 @@
         <v>-361534.7316188</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1657,7 +1697,7 @@
         <v>-283976.1110188001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2053,7 +2093,7 @@
         <v>1029922.2238812</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2126,7 @@
         <v>1067007.7031812</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2159,7 @@
         <v>683239.8752812</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2192,7 @@
         <v>683039.8752812</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2225,7 @@
         <v>708393.8947812001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2258,7 @@
         <v>699090.1397812001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2284,7 +2324,7 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2357,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2390,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2423,7 @@
         <v>734380.4703812001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2581,7 +2621,7 @@
         <v>1110288.7792812</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2779,7 +2819,7 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2852,7 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2911,7 +2951,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2984,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +3017,7 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3050,7 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3083,7 @@
         <v>759212.9307811999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest IOST.xlsx
+++ b/BackTest/2020-01-22 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>464.5297</v>
       </c>
       <c r="G2" t="n">
-        <v>-511350.8401000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>107000</v>
       </c>
       <c r="G3" t="n">
-        <v>-618350.8401000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>325985.53683181</v>
       </c>
       <c r="G4" t="n">
-        <v>-944336.3769318102</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>8730.0558</v>
       </c>
       <c r="G5" t="n">
-        <v>-953066.4327318101</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>6096.9432</v>
       </c>
       <c r="G6" t="n">
-        <v>-959163.3759318101</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>93000</v>
       </c>
       <c r="G7" t="n">
-        <v>-1052163.37593181</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2340.3467</v>
       </c>
       <c r="G8" t="n">
-        <v>-1054503.72263181</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>33000</v>
       </c>
       <c r="G9" t="n">
-        <v>-1087503.72263181</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,22 +683,15 @@
         <v>6709.1695</v>
       </c>
       <c r="G10" t="n">
-        <v>-1080794.55313181</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,264 +713,235 @@
         <v>55769.9717</v>
       </c>
       <c r="G11" t="n">
-        <v>-1025024.58143181</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.094</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23303.881</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="F13" t="n">
+        <v>48400.3685</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.101</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33545.8476</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="I14" t="n">
         <v>6.101</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23303.881</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1025024.58143181</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48400.3685</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-976624.2129318102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="F15" t="n">
+        <v>232.6357</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.11</v>
       </c>
-      <c r="C14" t="n">
+      <c r="I15" t="n">
         <v>6.11</v>
       </c>
-      <c r="D14" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.114</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.114</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37607.50261301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="I16" t="n">
         <v>6.11</v>
       </c>
-      <c r="E14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33545.8476</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-943078.3653318102</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.109</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="F15" t="n">
-        <v>232.6357</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-943311.0010318102</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="I17" t="n">
         <v>6.11</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.101</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.114</v>
-      </c>
-      <c r="F16" t="n">
-        <v>37607.50261301</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-905703.4984188002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-900703.4984188002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.148</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1028,24 +963,15 @@
         <v>20000</v>
       </c>
       <c r="G18" t="n">
-        <v>-920703.4984188002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>6.105</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1067,18 +993,15 @@
         <v>55000</v>
       </c>
       <c r="G19" t="n">
-        <v>-865703.4984188002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1100,18 +1023,15 @@
         <v>30427.858</v>
       </c>
       <c r="G20" t="n">
-        <v>-835275.6404188002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1133,18 +1053,15 @@
         <v>1900</v>
       </c>
       <c r="G21" t="n">
-        <v>-837175.6404188002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,18 +1083,15 @@
         <v>1500</v>
       </c>
       <c r="G22" t="n">
-        <v>-835675.6404188002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1199,18 +1113,15 @@
         <v>122000000</v>
       </c>
       <c r="G23" t="n">
-        <v>-835675.6404188002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,18 +1143,15 @@
         <v>73223.4912</v>
       </c>
       <c r="G24" t="n">
-        <v>-762452.1492188001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1265,18 +1173,15 @@
         <v>67503.8955</v>
       </c>
       <c r="G25" t="n">
-        <v>-829956.0447188001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1298,18 +1203,15 @@
         <v>640</v>
       </c>
       <c r="G26" t="n">
-        <v>-830596.0447188001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1331,18 +1233,15 @@
         <v>4303.336</v>
       </c>
       <c r="G27" t="n">
-        <v>-834899.3807188001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,18 +1263,15 @@
         <v>196.9004</v>
       </c>
       <c r="G28" t="n">
-        <v>-834702.4803188001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1397,18 +1293,15 @@
         <v>7053.8979</v>
       </c>
       <c r="G29" t="n">
-        <v>-841756.3782188001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1430,18 +1323,15 @@
         <v>72000</v>
       </c>
       <c r="G30" t="n">
-        <v>-769756.3782188001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,18 +1353,15 @@
         <v>320631.6328</v>
       </c>
       <c r="G31" t="n">
-        <v>-449124.7454188</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1496,18 +1383,15 @@
         <v>512502.0287</v>
       </c>
       <c r="G32" t="n">
-        <v>-449124.7454188</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1529,18 +1413,15 @@
         <v>60000</v>
       </c>
       <c r="G33" t="n">
-        <v>-509124.7454188</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1562,18 +1443,15 @@
         <v>7160.2965</v>
       </c>
       <c r="G34" t="n">
-        <v>-516285.0419188</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1595,18 +1473,15 @@
         <v>154750.3103</v>
       </c>
       <c r="G35" t="n">
-        <v>-361534.7316188</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1628,18 +1503,15 @@
         <v>204930.7741</v>
       </c>
       <c r="G36" t="n">
-        <v>-156603.9575188</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,18 +1533,15 @@
         <v>136343.1224</v>
       </c>
       <c r="G37" t="n">
-        <v>-292947.0799188</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1694,18 +1563,15 @@
         <v>8970.9689</v>
       </c>
       <c r="G38" t="n">
-        <v>-283976.1110188001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1727,18 +1593,15 @@
         <v>33241.4354</v>
       </c>
       <c r="G39" t="n">
-        <v>-283976.1110188001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1760,18 +1623,15 @@
         <v>65998.5024</v>
       </c>
       <c r="G40" t="n">
-        <v>-217977.6086188001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1793,18 +1653,15 @@
         <v>3348.1445</v>
       </c>
       <c r="G41" t="n">
-        <v>-217977.6086188001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1826,18 +1683,15 @@
         <v>75412.2264</v>
       </c>
       <c r="G42" t="n">
-        <v>-142565.3822188001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1859,18 +1713,15 @@
         <v>52706.9019</v>
       </c>
       <c r="G43" t="n">
-        <v>-89858.48031880008</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1892,18 +1743,15 @@
         <v>313131.705</v>
       </c>
       <c r="G44" t="n">
-        <v>-89858.48031880008</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1925,18 +1773,15 @@
         <v>78203.6612</v>
       </c>
       <c r="G45" t="n">
-        <v>-89858.48031880008</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1958,18 +1803,15 @@
         <v>388801.3087</v>
       </c>
       <c r="G46" t="n">
-        <v>-89858.48031880008</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1991,18 +1833,15 @@
         <v>205365.1122</v>
       </c>
       <c r="G47" t="n">
-        <v>-295223.5925188001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2024,18 +1863,15 @@
         <v>889041.9288</v>
       </c>
       <c r="G48" t="n">
-        <v>593818.3362811999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2057,18 +1893,15 @@
         <v>436103.8876</v>
       </c>
       <c r="G49" t="n">
-        <v>1029922.2238812</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2090,18 +1923,15 @@
         <v>92097.97840000001</v>
       </c>
       <c r="G50" t="n">
-        <v>1029922.2238812</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2123,18 +1953,15 @@
         <v>37085.4793</v>
       </c>
       <c r="G51" t="n">
-        <v>1067007.7031812</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2156,18 +1983,15 @@
         <v>383767.8279</v>
       </c>
       <c r="G52" t="n">
-        <v>683239.8752812</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2189,18 +2013,15 @@
         <v>200</v>
       </c>
       <c r="G53" t="n">
-        <v>683039.8752812</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2222,18 +2043,15 @@
         <v>25354.0195</v>
       </c>
       <c r="G54" t="n">
-        <v>708393.8947812001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2255,18 +2073,15 @@
         <v>9303.754999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>699090.1397812001</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2288,18 +2103,15 @@
         <v>51017.2809</v>
       </c>
       <c r="G56" t="n">
-        <v>699090.1397812001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2321,18 +2133,15 @@
         <v>66104.26730000001</v>
       </c>
       <c r="G57" t="n">
-        <v>765194.4070812</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2354,18 +2163,15 @@
         <v>31094.0957</v>
       </c>
       <c r="G58" t="n">
-        <v>734100.3113812001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2387,18 +2193,15 @@
         <v>201342.7752</v>
       </c>
       <c r="G59" t="n">
-        <v>734100.3113812001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2420,18 +2223,15 @@
         <v>280.159</v>
       </c>
       <c r="G60" t="n">
-        <v>734380.4703812001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2453,18 +2253,15 @@
         <v>251197.7822</v>
       </c>
       <c r="G61" t="n">
-        <v>985578.2525812001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2486,18 +2283,15 @@
         <v>53806.5129</v>
       </c>
       <c r="G62" t="n">
-        <v>985578.2525812001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2519,18 +2313,15 @@
         <v>2969.5</v>
       </c>
       <c r="G63" t="n">
-        <v>982608.7525812001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2552,18 +2343,15 @@
         <v>92380.163</v>
       </c>
       <c r="G64" t="n">
-        <v>1074988.9155812</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2585,18 +2373,15 @@
         <v>35299.8647</v>
       </c>
       <c r="G65" t="n">
-        <v>1110288.7802812</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2618,18 +2403,15 @@
         <v>0.001</v>
       </c>
       <c r="G66" t="n">
-        <v>1110288.7792812</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2651,18 +2433,15 @@
         <v>6232.7476</v>
       </c>
       <c r="G67" t="n">
-        <v>1104056.0316812</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2684,18 +2463,15 @@
         <v>17667.5058</v>
       </c>
       <c r="G68" t="n">
-        <v>1121723.5374812</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,18 +2493,15 @@
         <v>3046.1695</v>
       </c>
       <c r="G69" t="n">
-        <v>1118677.3679812</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2750,18 +2523,15 @@
         <v>31682.9776</v>
       </c>
       <c r="G70" t="n">
-        <v>1150360.3455812</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2783,18 +2553,15 @@
         <v>5451.7469</v>
       </c>
       <c r="G71" t="n">
-        <v>1155812.0924812</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2816,18 +2583,15 @@
         <v>127719.8553</v>
       </c>
       <c r="G72" t="n">
-        <v>1028092.2371812</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,18 +2613,15 @@
         <v>5164.0061</v>
       </c>
       <c r="G73" t="n">
-        <v>1033256.2432812</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2882,18 +2643,15 @@
         <v>82000</v>
       </c>
       <c r="G74" t="n">
-        <v>1115256.2432812</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2915,18 +2673,15 @@
         <v>113262.065</v>
       </c>
       <c r="G75" t="n">
-        <v>1228518.3082812</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2948,18 +2703,15 @@
         <v>8933.0298</v>
       </c>
       <c r="G76" t="n">
-        <v>1228518.3082812</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2981,18 +2733,15 @@
         <v>16154</v>
       </c>
       <c r="G77" t="n">
-        <v>1228518.3082812</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3014,18 +2763,15 @@
         <v>108458.0093</v>
       </c>
       <c r="G78" t="n">
-        <v>1120060.2989812</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3047,18 +2793,15 @@
         <v>358291.2439</v>
       </c>
       <c r="G79" t="n">
-        <v>761769.0550812</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3080,18 +2823,15 @@
         <v>2556.1243</v>
       </c>
       <c r="G80" t="n">
-        <v>759212.9307811999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,18 +2853,15 @@
         <v>81856.19990000001</v>
       </c>
       <c r="G81" t="n">
-        <v>677356.7308811999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3146,18 +2883,15 @@
         <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>682356.7308811999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3179,18 +2913,15 @@
         <v>73138.07000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>609218.6608811999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3212,18 +2943,15 @@
         <v>1376.1067</v>
       </c>
       <c r="G84" t="n">
-        <v>610594.7675811999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3245,18 +2973,15 @@
         <v>221206.1047</v>
       </c>
       <c r="G85" t="n">
-        <v>610594.7675811999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3278,18 +3003,15 @@
         <v>336772.8175</v>
       </c>
       <c r="G86" t="n">
-        <v>947367.5850811999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3311,18 +3033,15 @@
         <v>42934</v>
       </c>
       <c r="G87" t="n">
-        <v>990301.5850811999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3344,18 +3063,15 @@
         <v>3321.49</v>
       </c>
       <c r="G88" t="n">
-        <v>986980.0950811999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3377,18 +3093,15 @@
         <v>287</v>
       </c>
       <c r="G89" t="n">
-        <v>987267.0950811999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3410,18 +3123,15 @@
         <v>669329.9617</v>
       </c>
       <c r="G90" t="n">
-        <v>317937.1333811999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3443,18 +3153,15 @@
         <v>16895.5883</v>
       </c>
       <c r="G91" t="n">
-        <v>334832.7216811999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,18 +3183,15 @@
         <v>117000</v>
       </c>
       <c r="G92" t="n">
-        <v>217832.7216811999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3509,18 +3213,15 @@
         <v>98164.2071</v>
       </c>
       <c r="G93" t="n">
-        <v>217832.7216811999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3542,18 +3243,15 @@
         <v>1932.4179</v>
       </c>
       <c r="G94" t="n">
-        <v>219765.1395811999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3575,18 +3273,15 @@
         <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>219965.1395811999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3608,18 +3303,15 @@
         <v>75148.02</v>
       </c>
       <c r="G96" t="n">
-        <v>144817.1195811999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3641,18 +3333,15 @@
         <v>174.9562</v>
       </c>
       <c r="G97" t="n">
-        <v>144992.0757811999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3674,18 +3363,15 @@
         <v>169950.1</v>
       </c>
       <c r="G98" t="n">
-        <v>314942.1757811999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3707,18 +3393,15 @@
         <v>14877.2512</v>
       </c>
       <c r="G99" t="n">
-        <v>300064.9245811999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3740,18 +3423,15 @@
         <v>155</v>
       </c>
       <c r="G100" t="n">
-        <v>300219.9245811999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3773,18 +3453,15 @@
         <v>3035.385</v>
       </c>
       <c r="G101" t="n">
-        <v>297184.5395811999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3806,18 +3483,15 @@
         <v>3049.6392</v>
       </c>
       <c r="G102" t="n">
-        <v>297184.5395811999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3839,18 +3513,15 @@
         <v>92771.746</v>
       </c>
       <c r="G103" t="n">
-        <v>389956.2855811999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3872,18 +3543,15 @@
         <v>2822.0504</v>
       </c>
       <c r="G104" t="n">
-        <v>387134.2351811999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3905,18 +3573,15 @@
         <v>238958.4219</v>
       </c>
       <c r="G105" t="n">
-        <v>148175.8132811999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3938,18 +3603,15 @@
         <v>99</v>
       </c>
       <c r="G106" t="n">
-        <v>148274.8132811999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3971,18 +3633,15 @@
         <v>97.6785</v>
       </c>
       <c r="G107" t="n">
-        <v>148372.4917811999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4004,18 +3663,15 @@
         <v>240.4731</v>
       </c>
       <c r="G108" t="n">
-        <v>148612.9648811999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4037,18 +3693,15 @@
         <v>7550.5899</v>
       </c>
       <c r="G109" t="n">
-        <v>141062.3749811999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4070,18 +3723,15 @@
         <v>507625.0171</v>
       </c>
       <c r="G110" t="n">
-        <v>648687.3920811999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4103,18 +3753,15 @@
         <v>541718.30409005</v>
       </c>
       <c r="G111" t="n">
-        <v>1190405.69617125</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4136,18 +3783,15 @@
         <v>76823.548</v>
       </c>
       <c r="G112" t="n">
-        <v>1113582.14817125</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4169,18 +3813,15 @@
         <v>2457.233</v>
       </c>
       <c r="G113" t="n">
-        <v>1111124.91517125</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4202,18 +3843,15 @@
         <v>1370274.7898</v>
       </c>
       <c r="G114" t="n">
-        <v>-259149.8746287499</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4235,18 +3873,15 @@
         <v>2999.4825</v>
       </c>
       <c r="G115" t="n">
-        <v>-256150.3921287499</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4268,18 +3903,15 @@
         <v>18397.2491</v>
       </c>
       <c r="G116" t="n">
-        <v>-237753.1430287499</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
